--- a/batt_sust_model/data/component_type_linkage.xlsx
+++ b/batt_sust_model/data/component_type_linkage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/PhD/Models/ME optimisation model/ME_battery_supply_chain/Model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C7173C50-CF14-475C-9A26-61D210431F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63C92D6-65F3-4854-855D-E765E18F248D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{C7173C50-CF14-475C-9A26-61D210431F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C225A0-6F90-441E-B656-061391C060FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A93A483D-8934-476A-8F41-102C8A89BE87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A93A483D-8934-476A-8F41-102C8A89BE87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>anode active material (natural graphite)</t>
   </si>
@@ -216,9 +216,6 @@
     <t>busbar</t>
   </si>
   <si>
-    <t>module compression plates</t>
-  </si>
-  <si>
     <t>pack heater</t>
   </si>
   <si>
@@ -283,19 +280,31 @@
   </si>
   <si>
     <t>anode current collector Cu (14um)</t>
+  </si>
+  <si>
+    <t>module polymer panels</t>
+  </si>
+  <si>
+    <t>module row rack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,8 +327,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,31 +646,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42159FDD-8FA0-4226-80C8-0F2EBAA5E9EC}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.20703125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -669,9 +681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -680,9 +692,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -691,9 +703,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -702,31 +714,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -735,130 +747,130 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -867,9 +879,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -878,9 +890,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -889,9 +901,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -900,9 +912,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -911,9 +923,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -922,9 +934,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -933,262 +945,262 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -1197,20 +1209,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -1219,135 +1231,146 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
         <v>63</v>
       </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
       <c r="C64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
         <v>23</v>
       </c>
     </row>

--- a/batt_sust_model/data/component_type_linkage.xlsx
+++ b/batt_sust_model/data/component_type_linkage.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{C7173C50-CF14-475C-9A26-61D210431F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C225A0-6F90-441E-B656-061391C060FA}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C7173C50-CF14-475C-9A26-61D210431F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8411650C-BA1E-4CB3-A70D-1795FA1E14A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A93A483D-8934-476A-8F41-102C8A89BE87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A93A483D-8934-476A-8F41-102C8A89BE87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="113">
   <si>
     <t>anode active material (natural graphite)</t>
   </si>
@@ -135,12 +135,6 @@
     <t>anode binder additive (SBR)</t>
   </si>
   <si>
-    <t>anode solvent</t>
-  </si>
-  <si>
-    <t>binder solvent (deionised water)</t>
-  </si>
-  <si>
     <t>anode current collector Cu (9um)</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>cathode carbon black</t>
   </si>
   <si>
-    <t>carbon solvent</t>
-  </si>
-  <si>
-    <t>binder solvent (NMP)</t>
-  </si>
-  <si>
     <t>cell terminal anode</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t>module thermal conductor</t>
   </si>
   <si>
-    <t xml:space="preserve">spacer for gas release </t>
-  </si>
-  <si>
     <t>module container</t>
   </si>
   <si>
@@ -286,6 +271,108 @@
   </si>
   <si>
     <t>module row rack</t>
+  </si>
+  <si>
+    <t>cathode active material (50%/50% NMC532/LMO - )</t>
+  </si>
+  <si>
+    <t>coated separator (10um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (10um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (11um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (11um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (12um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (12um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (13um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (13um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (14um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (14um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (15um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (15um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (5um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (6um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (6um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (7um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (8um+1um)</t>
+  </si>
+  <si>
+    <t>coated separator (8um+2um)</t>
+  </si>
+  <si>
+    <t>coated separator (9um+1um)</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>cooling connectors</t>
+  </si>
+  <si>
+    <t>cooling mains Fe</t>
+  </si>
+  <si>
+    <t>cooling panels</t>
+  </si>
+  <si>
+    <t>gas release</t>
+  </si>
+  <si>
+    <t>module tabs</t>
+  </si>
+  <si>
+    <t>separator (10um)</t>
+  </si>
+  <si>
+    <t>separator (11um)</t>
+  </si>
+  <si>
+    <t>separator (12um)</t>
+  </si>
+  <si>
+    <t>separator (13um)</t>
+  </si>
+  <si>
+    <t>separator (14um)</t>
+  </si>
+  <si>
+    <t>separator (15um)</t>
+  </si>
+  <si>
+    <t>separator (6um)</t>
+  </si>
+  <si>
+    <t>separator (8um)</t>
   </si>
 </sst>
 </file>
@@ -646,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42159FDD-8FA0-4226-80C8-0F2EBAA5E9EC}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,717 +748,1025 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
